--- a/GUI + Reviews/202506/Eurozone 300.xlsx
+++ b/GUI + Reviews/202506/Eurozone 300.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\Data input files\Factset Data\Calculation file\202506\Preliminary 10.06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\Data input files\Factset Data\Calculation file\202506\Preliminary 11.06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B57D896F-6110-4AFC-A09B-194B89D0B9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4220AE31-D2BA-4B02-ADEF-EE610E297005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28530" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{58B73E0E-0337-4E26-A2EB-D724D5C676CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{645FCBAE-BFBE-48BC-8962-8DDEF726EA79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3224,28 +3224,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{35931394-07BA-47B1-9C2A-20069EDBDB66}" name="Universe" displayName="Universe" ref="A1:S301" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:S301" xr:uid="{35931394-07BA-47B1-9C2A-20069EDBDB66}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97490985-E924-4CF9-985A-07F491452A77}" name="Universe" displayName="Universe" ref="A1:S301" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:S301" xr:uid="{97490985-E924-4CF9-985A-07F491452A77}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{A0F86FA2-8A47-427E-8F0F-47975C7910AB}" name="Rank" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{DC357FF7-F2B3-4F96-B224-C2C0B1912CA9}" name="Ticker" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{7A0B5BDE-2A24-4A49-A33E-2A0475275A69}" name="Name" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{57E5CEE2-630C-4C01-A392-3954535B68E4}" name="ISIN" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{B9ADFB38-C87F-400A-96EF-0BF644F9885D}" name="MIC" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{C892D6B8-6AA2-46E9-98E7-0F50C28CAB11}" name="NOSH" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{C9A95453-D1F5-45D7-A3CB-C277EE5E9AB2}" name="Price" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{2E042091-9BBA-4F0B-8613-B0E97BCAB8A7}" name="Currency" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{17726D5E-89A1-46FE-854A-543D4126AC52}" name="12 month aver. turnover EUR" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{AA4FBA8C-B1A2-4326-B988-1F3EFA14644A}" name="20 days aver. turn EUR" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{77EFBDC4-5D8C-42CE-A743-D6AE3DC55025}" name="10 days aver. turn EUR" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{D8C8105C-A65F-455E-8023-EEAEDEEB9123}" name="5 days aver. turn EUR" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{66FC6C03-16E3-4058-8624-B59DD4DB8DFC}" name="6 month aver. turnover EUR" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{99A8482F-4BF2-4287-A6E8-4E82480979D8}" name="126 days volatility" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{41DF34E7-135A-40C4-B78C-BFE1AA0E1E19}" name="100 days volatility" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{8FF02F90-EF5B-4A2F-96C5-B47B1121DB1B}" name="100 days aver. turn EUR" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{1609B90C-0690-4E9B-B5BF-458955B3376C}" name="180 days volatility" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{B5365606-CABD-4A91-AC2B-D5177E9547AF}" name="3 months aver. Turnover EUR" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{E192A971-68F6-4642-9159-56C68D7DF92D}" name="3 months aver. Turnover USD" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5E1A9952-AEA3-4A93-AE15-5CEB76544A6A}" name="Rank" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{40EDE445-637D-4570-9766-C361C58E3D45}" name="Ticker" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{F73B0E2F-5BE5-41A7-91E4-E15B496907E3}" name="Name" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{965676E4-B94A-4A1F-9DB9-3E51A3235E79}" name="ISIN" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{043010E7-CEA4-44D6-A542-24038BE7B35C}" name="MIC" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{9017C1FC-534E-4769-850B-E05CA2AED8FA}" name="NOSH" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{342ED973-AFA5-4741-9751-98DB91FCFEEC}" name="Price" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{D7142682-FB62-4E70-8402-3D21FE66D792}" name="Currency" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{762DCAEC-45E5-45A5-910E-1D5857F927F3}" name="12 month aver. turnover EUR" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{30961EA6-C78F-4D79-A291-F6F523274217}" name="20 days aver. turn EUR" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{E0078929-EF4F-4BD5-947B-3736D3D8D69D}" name="10 days aver. turn EUR" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{9881CE0B-A472-420F-9D8D-210C3BF81E41}" name="5 days aver. turn EUR" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{3FBEE8DF-0413-4812-84CF-3C5B4C5CBAA0}" name="6 month aver. turnover EUR" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{E1CABBA0-0053-48BE-B400-84431DA32189}" name="126 days volatility" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{B8AA8BED-823D-4C1D-90D0-7B9B91946033}" name="100 days volatility" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{F588D7B9-BF5F-4592-9725-4CF305652B42}" name="100 days aver. turn EUR" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{0A73FEE7-B5DF-4F55-BF38-51AE65BBAA52}" name="180 days volatility" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{1E1F4DE7-704E-48C8-AA9A-FD449BAAF723}" name="3 months aver. Turnover EUR" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{115C5DB2-CD8C-4451-8B52-F66468738B9D}" name="3 months aver. Turnover USD" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3567,7 +3567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84230A45-53D9-4D36-98DA-425968E3E100}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9F2679-BD87-4753-BEF9-F9AB29999A27}">
   <dimension ref="A1:S301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -12304,7 +12304,7 @@
         <v>22</v>
       </c>
       <c r="F159" s="1">
-        <v>1014692391</v>
+        <v>811753913</v>
       </c>
       <c r="G159" s="1">
         <v>7.15</v>
@@ -15549,7 +15549,7 @@
         <v>52</v>
       </c>
       <c r="F218" s="1">
-        <v>216116100</v>
+        <v>216556000</v>
       </c>
       <c r="G218" s="1">
         <v>37.11</v>
@@ -18684,7 +18684,7 @@
         <v>31</v>
       </c>
       <c r="F275" s="1">
-        <v>44512600</v>
+        <v>44512598</v>
       </c>
       <c r="G275" s="1">
         <v>122.4</v>
@@ -19179,7 +19179,7 @@
         <v>42</v>
       </c>
       <c r="F284" s="1">
-        <v>234339230</v>
+        <v>234339227</v>
       </c>
       <c r="G284" s="1">
         <v>16.829999999999998</v>
@@ -19564,7 +19564,7 @@
         <v>42</v>
       </c>
       <c r="F291" s="1">
-        <v>1029918100.0000001</v>
+        <v>1029918125</v>
       </c>
       <c r="G291" s="1">
         <v>2.923</v>
@@ -19784,7 +19784,7 @@
         <v>27</v>
       </c>
       <c r="F295" s="1">
-        <v>117816150</v>
+        <v>117816148</v>
       </c>
       <c r="G295" s="1">
         <v>39.44</v>
@@ -19949,7 +19949,7 @@
         <v>42</v>
       </c>
       <c r="F298" s="1">
-        <v>44461998</v>
+        <v>44461997</v>
       </c>
       <c r="G298" s="1">
         <v>84.65</v>

--- a/GUI + Reviews/202506/Eurozone 300.xlsx
+++ b/GUI + Reviews/202506/Eurozone 300.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\Data input files\Factset Data\Calculation file\202506\Preliminary 11.06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202506/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{4220AE31-D2BA-4B02-ADEF-EE610E297005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{645FCBAE-BFBE-48BC-8962-8DDEF726EA79}"/>
+    <workbookView minimized="1" xWindow="-23625" yWindow="-13665" windowWidth="21600" windowHeight="11295" xr2:uid="{645FCBAE-BFBE-48BC-8962-8DDEF726EA79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3224,28 +3224,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97490985-E924-4CF9-985A-07F491452A77}" name="Universe" displayName="Universe" ref="A1:S301" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97490985-E924-4CF9-985A-07F491452A77}" name="Universe" displayName="Universe" ref="A1:S301" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:S301" xr:uid="{97490985-E924-4CF9-985A-07F491452A77}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{5E1A9952-AEA3-4A93-AE15-5CEB76544A6A}" name="Rank" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{40EDE445-637D-4570-9766-C361C58E3D45}" name="Ticker" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{F73B0E2F-5BE5-41A7-91E4-E15B496907E3}" name="Name" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{965676E4-B94A-4A1F-9DB9-3E51A3235E79}" name="ISIN" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{043010E7-CEA4-44D6-A542-24038BE7B35C}" name="MIC" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{9017C1FC-534E-4769-850B-E05CA2AED8FA}" name="NOSH" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{342ED973-AFA5-4741-9751-98DB91FCFEEC}" name="Price" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{D7142682-FB62-4E70-8402-3D21FE66D792}" name="Currency" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{762DCAEC-45E5-45A5-910E-1D5857F927F3}" name="12 month aver. turnover EUR" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{30961EA6-C78F-4D79-A291-F6F523274217}" name="20 days aver. turn EUR" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{E0078929-EF4F-4BD5-947B-3736D3D8D69D}" name="10 days aver. turn EUR" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{9881CE0B-A472-420F-9D8D-210C3BF81E41}" name="5 days aver. turn EUR" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{3FBEE8DF-0413-4812-84CF-3C5B4C5CBAA0}" name="6 month aver. turnover EUR" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{E1CABBA0-0053-48BE-B400-84431DA32189}" name="126 days volatility" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{B8AA8BED-823D-4C1D-90D0-7B9B91946033}" name="100 days volatility" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{F588D7B9-BF5F-4592-9725-4CF305652B42}" name="100 days aver. turn EUR" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{0A73FEE7-B5DF-4F55-BF38-51AE65BBAA52}" name="180 days volatility" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{1E1F4DE7-704E-48C8-AA9A-FD449BAAF723}" name="3 months aver. Turnover EUR" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{115C5DB2-CD8C-4451-8B52-F66468738B9D}" name="3 months aver. Turnover USD" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5E1A9952-AEA3-4A93-AE15-5CEB76544A6A}" name="Rank" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{40EDE445-637D-4570-9766-C361C58E3D45}" name="Ticker" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{F73B0E2F-5BE5-41A7-91E4-E15B496907E3}" name="Name" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{965676E4-B94A-4A1F-9DB9-3E51A3235E79}" name="ISIN" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{043010E7-CEA4-44D6-A542-24038BE7B35C}" name="MIC" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{9017C1FC-534E-4769-850B-E05CA2AED8FA}" name="NOSH" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{342ED973-AFA5-4741-9751-98DB91FCFEEC}" name="Price" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{D7142682-FB62-4E70-8402-3D21FE66D792}" name="Currency" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{762DCAEC-45E5-45A5-910E-1D5857F927F3}" name="12 month aver. turnover EUR" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{30961EA6-C78F-4D79-A291-F6F523274217}" name="20 days aver. turn EUR" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{E0078929-EF4F-4BD5-947B-3736D3D8D69D}" name="10 days aver. turn EUR" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{9881CE0B-A472-420F-9D8D-210C3BF81E41}" name="5 days aver. turn EUR" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{3FBEE8DF-0413-4812-84CF-3C5B4C5CBAA0}" name="6 month aver. turnover EUR" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{E1CABBA0-0053-48BE-B400-84431DA32189}" name="126 days volatility" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{B8AA8BED-823D-4C1D-90D0-7B9B91946033}" name="100 days volatility" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{F588D7B9-BF5F-4592-9725-4CF305652B42}" name="100 days aver. turn EUR" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{0A73FEE7-B5DF-4F55-BF38-51AE65BBAA52}" name="180 days volatility" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{1E1F4DE7-704E-48C8-AA9A-FD449BAAF723}" name="3 months aver. Turnover EUR" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{115C5DB2-CD8C-4451-8B52-F66468738B9D}" name="3 months aver. Turnover USD" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3570,7 +3570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9F2679-BD87-4753-BEF9-F9AB29999A27}">
   <dimension ref="A1:S301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/GUI + Reviews/202506/Eurozone 300.xlsx
+++ b/GUI + Reviews/202506/Eurozone 300.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{4220AE31-D2BA-4B02-ADEF-EE610E297005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-23625" yWindow="-13665" windowWidth="21600" windowHeight="11295" xr2:uid="{645FCBAE-BFBE-48BC-8962-8DDEF726EA79}"/>
+    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" xr2:uid="{645FCBAE-BFBE-48BC-8962-8DDEF726EA79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3571,7 +3571,7 @@
   <dimension ref="A1:S301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/GUI + Reviews/202506/Eurozone 300.xlsx
+++ b/GUI + Reviews/202506/Eurozone 300.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{4220AE31-D2BA-4B02-ADEF-EE610E297005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" xr2:uid="{645FCBAE-BFBE-48BC-8962-8DDEF726EA79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{645FCBAE-BFBE-48BC-8962-8DDEF726EA79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3571,7 +3571,7 @@
   <dimension ref="A1:S301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
